--- a/data/trans_orig/P44A$analisis-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44A$analisis-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>6166</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2273</v>
+        <v>2946</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10269</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4056016980337389</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.149550709033731</v>
+        <v>0.1938320935306118</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6755669239761398</v>
+        <v>0.6834938754554933</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>3172</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1028</v>
+        <v>1010</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7366</v>
+        <v>7313</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2087011298518557</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06764216616502516</v>
+        <v>0.06645408811216151</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4846275700520711</v>
+        <v>0.4810855806373354</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -785,19 +785,19 @@
         <v>9338</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4300</v>
+        <v>5103</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15710</v>
+        <v>15355</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3071531645882132</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1414552519992865</v>
+        <v>0.16787151469764</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5167562553277947</v>
+        <v>0.5050794856293157</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>7957</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3970</v>
+        <v>4083</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12028</v>
+        <v>11955</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5234210241071748</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2611812356771134</v>
+        <v>0.2686249966006693</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7912703459294251</v>
+        <v>0.7864737419238648</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -835,19 +835,19 @@
         <v>10225</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6116</v>
+        <v>6174</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13256</v>
+        <v>13283</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6727143652301675</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4023412725874244</v>
+        <v>0.4061848784215928</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8721293421667674</v>
+        <v>0.8738517461557956</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -856,19 +856,19 @@
         <v>18182</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12573</v>
+        <v>12066</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23295</v>
+        <v>23231</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5980663672997069</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.413558117310581</v>
+        <v>0.3968808642875912</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7662495439809084</v>
+        <v>0.764154842610574</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>4197</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8362</v>
+        <v>8325</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2761002690826074</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0711500050692873</v>
+        <v>0.07090391687477679</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5500773415681917</v>
+        <v>0.5476545952059072</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -906,19 +906,19 @@
         <v>3008</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7082</v>
+        <v>7021</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1979211561707647</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06167744149853619</v>
+        <v>0.06168024957896186</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.465890813691413</v>
+        <v>0.4619205145911062</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -927,19 +927,19 @@
         <v>7205</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3133</v>
+        <v>3199</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12589</v>
+        <v>13170</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2370114077181574</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1030494994350979</v>
+        <v>0.1052199525058727</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4140854762257057</v>
+        <v>0.4332193695074775</v>
       </c>
     </row>
     <row r="7">
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5988</v>
+        <v>6164</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1344606084155124</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3939456690569839</v>
+        <v>0.4055073164579395</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -977,19 +977,19 @@
         <v>2998</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7129</v>
+        <v>7134</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1972438772469866</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06120638382031698</v>
+        <v>0.06092616782316359</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.468981364534434</v>
+        <v>0.4693741254510193</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -998,19 +998,19 @@
         <v>5042</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1999</v>
+        <v>1920</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11139</v>
+        <v>10026</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1658516846244206</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06575739337389309</v>
+        <v>0.06316624937723214</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3663978001486943</v>
+        <v>0.3297766329420147</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>12078</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6820</v>
+        <v>6519</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17780</v>
+        <v>17724</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4578366350128571</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2585368817036377</v>
+        <v>0.2471136706865404</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6739824871842465</v>
+        <v>0.6718791782677861</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1052,19 +1052,19 @@
         <v>12620</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7123</v>
+        <v>7300</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18882</v>
+        <v>19138</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3469960044333252</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1958661878153936</v>
+        <v>0.2007119631125961</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.519169637292906</v>
+        <v>0.5262159147333505</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -1073,19 +1073,19 @@
         <v>24698</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15080</v>
+        <v>17125</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>32392</v>
+        <v>33606</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3935934715253463</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2403152032780066</v>
+        <v>0.2729137188545112</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5162111377045928</v>
+        <v>0.5355571384898998</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>16607</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10666</v>
+        <v>10327</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21525</v>
+        <v>22052</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6295369279275799</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4043141691071213</v>
+        <v>0.3914863799908546</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8159476108166701</v>
+        <v>0.835939862396315</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -1123,19 +1123,19 @@
         <v>24548</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17614</v>
+        <v>17509</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>29692</v>
+        <v>29996</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6749826825806008</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4843071066034444</v>
+        <v>0.4814270598399318</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8163978230143836</v>
+        <v>0.8247794668012871</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>36</v>
@@ -1144,19 +1144,19 @@
         <v>41156</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>33199</v>
+        <v>32122</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>48417</v>
+        <v>48191</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6558772602652999</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5290741359912812</v>
+        <v>0.5119151958617222</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7715944504804882</v>
+        <v>0.7679986892354315</v>
       </c>
     </row>
     <row r="10">
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6936</v>
+        <v>6734</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08180474430629586</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.262940767156412</v>
+        <v>0.2552633602673795</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1194,19 +1194,19 @@
         <v>13658</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7867</v>
+        <v>7665</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20623</v>
+        <v>20569</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3755271276426486</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2163110970159482</v>
+        <v>0.2107537060947987</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5670438622573761</v>
+        <v>0.5655616131752853</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1215,19 +1215,19 @@
         <v>15816</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9886</v>
+        <v>8766</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23718</v>
+        <v>24685</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2520460628007716</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1575492603228388</v>
+        <v>0.1397015612673468</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.377980351766806</v>
+        <v>0.3933852000504134</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>3110</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8114</v>
+        <v>8149</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1178795115942815</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03511626036225855</v>
+        <v>0.0353859372036529</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3075704052720238</v>
+        <v>0.3089031506398465</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5093</v>
+        <v>4981</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02719959042855866</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1400402546523383</v>
+        <v>0.1369538799023258</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1286,19 +1286,19 @@
         <v>4099</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1046</v>
+        <v>1021</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9265</v>
+        <v>9631</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06532148327898711</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01667577548045291</v>
+        <v>0.01626958849671243</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1476511567104967</v>
+        <v>0.1534880865341666</v>
       </c>
     </row>
     <row r="12">
@@ -1319,19 +1319,19 @@
         <v>9420</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4823</v>
+        <v>4648</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14891</v>
+        <v>15550</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3574419009539946</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1830091719177397</v>
+        <v>0.1763546085244266</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5650307308417701</v>
+        <v>0.5900369536681443</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1340,19 +1340,19 @@
         <v>8794</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4178</v>
+        <v>4201</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13979</v>
+        <v>14435</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3328634983018754</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1581305967136017</v>
+        <v>0.1589966432035027</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5291059261818111</v>
+        <v>0.5463724874391906</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -1361,19 +1361,19 @@
         <v>18215</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11085</v>
+        <v>10954</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>25868</v>
+        <v>25784</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3451375826862625</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2100458461005402</v>
+        <v>0.2075635928662224</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4901523424549188</v>
+        <v>0.4885716043205057</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>17888</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11400</v>
+        <v>11923</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22007</v>
+        <v>22174</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6787323341164959</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4325494539618762</v>
+        <v>0.4523812780121155</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8350131007494429</v>
+        <v>0.8413444449296985</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1411,19 +1411,19 @@
         <v>16181</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10560</v>
+        <v>10170</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20755</v>
+        <v>20766</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6124610711741567</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3997112352327955</v>
+        <v>0.3849413231124393</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7855727608163366</v>
+        <v>0.7859992298089473</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -1432,19 +1432,19 @@
         <v>34069</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27345</v>
+        <v>25434</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41367</v>
+        <v>41481</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6455559425182081</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.518150971970424</v>
+        <v>0.4819315269744494</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7838445671789932</v>
+        <v>0.78599980318384</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>5361</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1962</v>
+        <v>2105</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11910</v>
+        <v>12208</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2034208277865833</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07444015372114506</v>
+        <v>0.07988272534290143</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4519065220120405</v>
+        <v>0.4632276469066929</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1482,19 +1482,19 @@
         <v>8931</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4326</v>
+        <v>4320</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14439</v>
+        <v>14471</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3380545805677856</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1637298989077798</v>
+        <v>0.1635135503727306</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5465176724222034</v>
+        <v>0.547738621485404</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -1503,19 +1503,19 @@
         <v>14293</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7671</v>
+        <v>7980</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22234</v>
+        <v>22290</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2708205106401085</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1453570582899896</v>
+        <v>0.1512171458347288</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4212949620565967</v>
+        <v>0.4223680263303464</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>3195</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>930</v>
+        <v>964</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8062</v>
+        <v>8648</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1212197140245415</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03527452803141352</v>
+        <v>0.03659432649734829</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3058869685225236</v>
+        <v>0.3281431182895372</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -1553,19 +1553,19 @@
         <v>3111</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>962</v>
+        <v>937</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7668</v>
+        <v>7869</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1177521309070767</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03640912746196636</v>
+        <v>0.0354759438191407</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2902430305499868</v>
+        <v>0.2978297135111919</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -1574,19 +1574,19 @@
         <v>6306</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2131</v>
+        <v>2939</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12154</v>
+        <v>13037</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.119483789729501</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04038773435598047</v>
+        <v>0.05569738053715097</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2302898249701715</v>
+        <v>0.2470385698308419</v>
       </c>
     </row>
     <row r="16">
@@ -1607,19 +1607,19 @@
         <v>13407</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7454</v>
+        <v>7436</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19987</v>
+        <v>20726</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3236039342706926</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1799242775744585</v>
+        <v>0.179477875933212</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4824178707657236</v>
+        <v>0.5002451892512714</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1628,19 +1628,19 @@
         <v>9185</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4737</v>
+        <v>4506</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15151</v>
+        <v>15069</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3171430862493774</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1635619788969779</v>
+        <v>0.1555779739837531</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5231388286128528</v>
+        <v>0.5203191284147364</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -1649,19 +1649,19 @@
         <v>22592</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15020</v>
+        <v>14620</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31278</v>
+        <v>31634</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3209457216957325</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2133792171036593</v>
+        <v>0.2076862009296982</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.444334957454399</v>
+        <v>0.4493977014808276</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>24639</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17493</v>
+        <v>16655</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31261</v>
+        <v>30998</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5947043715174749</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4222287179668492</v>
+        <v>0.4020052988762905</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7545430028768122</v>
+        <v>0.7481950939208905</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -1699,19 +1699,19 @@
         <v>15174</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9439</v>
+        <v>9215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21274</v>
+        <v>20774</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5239157040943879</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3258967312439257</v>
+        <v>0.3181747811027276</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.734553500183484</v>
+        <v>0.7172700847331671</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -1720,19 +1720,19 @@
         <v>39813</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30718</v>
+        <v>31068</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49091</v>
+        <v>48372</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5655795065944934</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4363817544130154</v>
+        <v>0.4413441442938377</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6973877591495954</v>
+        <v>0.6871650697053509</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>6176</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1989</v>
+        <v>2842</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11231</v>
+        <v>11875</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1490739244330757</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04800703688631482</v>
+        <v>0.06858899864365124</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2710668357955686</v>
+        <v>0.2866196856806474</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -1770,19 +1770,19 @@
         <v>11686</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6456</v>
+        <v>6725</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18085</v>
+        <v>17679</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.403480926754239</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2229193910735172</v>
+        <v>0.2322177130728222</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6244259217613735</v>
+        <v>0.6104159669819962</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>16</v>
@@ -1791,19 +1791,19 @@
         <v>17862</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10938</v>
+        <v>11098</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>26465</v>
+        <v>26273</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2537456162136157</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1553798150692667</v>
+        <v>0.1576606418816671</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3759653163986248</v>
+        <v>0.3732388734872352</v>
       </c>
     </row>
     <row r="19">
@@ -1820,19 +1820,19 @@
         <v>11299</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5720</v>
+        <v>6004</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17535</v>
+        <v>18431</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2727152813089803</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1380635565376187</v>
+        <v>0.1449116963691363</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4232398767653816</v>
+        <v>0.4448533024212928</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7603</v>
+        <v>6466</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07089650540452798</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2625148660297487</v>
+        <v>0.2232427059833649</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -1862,19 +1862,19 @@
         <v>13352</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7235</v>
+        <v>7058</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22255</v>
+        <v>21173</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1896801741214474</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1027820047144238</v>
+        <v>0.1002613615100194</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3161515048670321</v>
+        <v>0.3007809776151211</v>
       </c>
     </row>
     <row r="20">
@@ -1895,19 +1895,19 @@
         <v>41070</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30783</v>
+        <v>30955</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>52257</v>
+        <v>52783</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3755323822530451</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2814655459626043</v>
+        <v>0.2830395218135471</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4778163836278409</v>
+        <v>0.4826284455048975</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -1916,19 +1916,19 @@
         <v>33771</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23142</v>
+        <v>25176</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43857</v>
+        <v>44416</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3157660353698978</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2163826580787245</v>
+        <v>0.2354014365920429</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.410063196192091</v>
+        <v>0.4152939978097556</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>69</v>
@@ -1937,19 +1937,19 @@
         <v>74842</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>60346</v>
+        <v>60311</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>90360</v>
+        <v>90409</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3459828250594279</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.278966699221934</v>
+        <v>0.2788090849800882</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4177179280495245</v>
+        <v>0.4179451930885836</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>67090</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>55250</v>
+        <v>54863</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>77898</v>
+        <v>76676</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6134476704769855</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5051888680355084</v>
+        <v>0.501643472450912</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7122665810086291</v>
+        <v>0.70109128309333</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>61</v>
@@ -1987,19 +1987,19 @@
         <v>66129</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>54255</v>
+        <v>56479</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>76687</v>
+        <v>77299</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6183072103378344</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5072840622761006</v>
+        <v>0.5280863229691877</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7170285641097613</v>
+        <v>0.722748308415596</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>118</v>
@@ -2008,19 +2008,19 @@
         <v>133220</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>119069</v>
+        <v>117633</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>147821</v>
+        <v>147738</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6158503144152803</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.550433936125643</v>
+        <v>0.5437987943811161</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6833501931408523</v>
+        <v>0.6829659587101463</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>17892</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10851</v>
+        <v>10652</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28527</v>
+        <v>27145</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1636001922329219</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09921729763617632</v>
+        <v>0.09740131407150063</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.260840426262801</v>
+        <v>0.2482006372035832</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -2058,19 +2058,19 @@
         <v>37283</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28130</v>
+        <v>27404</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49883</v>
+        <v>47242</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3485983603345983</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2630144275260097</v>
+        <v>0.2562301120616553</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4664131157006827</v>
+        <v>0.4417136915463675</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -2079,19 +2079,19 @@
         <v>55176</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42559</v>
+        <v>42604</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>69475</v>
+        <v>68923</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2550666149628069</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1967439282811159</v>
+        <v>0.1969485642965454</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3211729366833092</v>
+        <v>0.3186196956740068</v>
       </c>
     </row>
     <row r="23">
@@ -2108,19 +2108,19 @@
         <v>19647</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12915</v>
+        <v>11880</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30203</v>
+        <v>29388</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1796449615522855</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1180859352093026</v>
+        <v>0.1086303365816594</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2761650696482835</v>
+        <v>0.2687090128865383</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -2129,19 +2129,19 @@
         <v>9152</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4031</v>
+        <v>4111</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16699</v>
+        <v>16987</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08556876449571599</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03769291518248413</v>
+        <v>0.03844152127638911</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1561383880379678</v>
+        <v>0.158832619243896</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>27</v>
@@ -2150,19 +2150,19 @@
         <v>28799</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20064</v>
+        <v>20282</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>41728</v>
+        <v>41737</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1331319971424602</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09275409541641207</v>
+        <v>0.093762127756435</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1929018547174938</v>
+        <v>0.1929437434639666</v>
       </c>
     </row>
     <row r="24">
@@ -2423,19 +2423,19 @@
         <v>8343</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3843</v>
+        <v>3923</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14771</v>
+        <v>13867</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2701023064148229</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1244192742965501</v>
+        <v>0.1270137344419393</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4781949660642026</v>
+        <v>0.4489346114915707</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2444,19 +2444,19 @@
         <v>5314</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2020</v>
+        <v>1877</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10919</v>
+        <v>10176</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2078702140613157</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07901542894156527</v>
+        <v>0.07341353615883886</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4271595496044888</v>
+        <v>0.3980824756073763</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -2465,19 +2465,19 @@
         <v>13657</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7790</v>
+        <v>7657</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21066</v>
+        <v>20763</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2419220728376616</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1379955490253797</v>
+        <v>0.1356449369407343</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3731697144931272</v>
+        <v>0.3678051225229053</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>12823</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7611</v>
+        <v>7635</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18268</v>
+        <v>18663</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4151410755265241</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2463932473516537</v>
+        <v>0.2471911411718726</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5914235960169132</v>
+        <v>0.604195047827274</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -2515,19 +2515,19 @@
         <v>13524</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8082</v>
+        <v>7555</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18775</v>
+        <v>18591</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5290630401305231</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3161514877616953</v>
+        <v>0.2955611105897009</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.734463721953818</v>
+        <v>0.7272503031757485</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -2536,19 +2536,19 @@
         <v>26348</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18509</v>
+        <v>18700</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35053</v>
+        <v>34312</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4667277641738145</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3278786630679875</v>
+        <v>0.3312552328675001</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6209401152385265</v>
+        <v>0.6078121197837699</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>10929</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5801</v>
+        <v>5939</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16840</v>
+        <v>16593</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3538096605549677</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1877913109098063</v>
+        <v>0.1922716550594693</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5451715126560391</v>
+        <v>0.5371745235403542</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -2586,19 +2586,19 @@
         <v>10107</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5305</v>
+        <v>4965</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15504</v>
+        <v>16266</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3953872370575118</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2075226808200152</v>
+        <v>0.1942351175297675</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6064830968333853</v>
+        <v>0.6363176123713365</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>19</v>
@@ -2607,19 +2607,19 @@
         <v>21036</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14292</v>
+        <v>13858</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29521</v>
+        <v>28545</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3726370175198979</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2531700739833404</v>
+        <v>0.2454798278287807</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5229378711518604</v>
+        <v>0.5056466881897197</v>
       </c>
     </row>
     <row r="7">
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9087</v>
+        <v>7645</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05281173647275053</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2941749578595758</v>
+        <v>0.2475152440790914</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2657,19 +2657,19 @@
         <v>3360</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8684</v>
+        <v>8319</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1314296730965132</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04074593911353219</v>
+        <v>0.04054362582214014</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3396998627634246</v>
+        <v>0.3254492329582075</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -2678,19 +2678,19 @@
         <v>4991</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1190</v>
+        <v>1228</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11672</v>
+        <v>11602</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08841188638940746</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02107690556291711</v>
+        <v>0.02176029960527331</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2067566468255656</v>
+        <v>0.2055174795103272</v>
       </c>
     </row>
     <row r="8">
@@ -2711,19 +2711,19 @@
         <v>17323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10479</v>
+        <v>11297</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22727</v>
+        <v>23443</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4385011115436556</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2652585774806464</v>
+        <v>0.2859633623224861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5752849631342262</v>
+        <v>0.5934253719414989</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -2732,19 +2732,19 @@
         <v>13190</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6832</v>
+        <v>7273</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19251</v>
+        <v>19680</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3916734349761715</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2028939959946564</v>
+        <v>0.215974385913954</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5716670328180756</v>
+        <v>0.5843965526232929</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -2753,19 +2753,19 @@
         <v>30512</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21931</v>
+        <v>21222</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>39001</v>
+        <v>39635</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4169525749012578</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2996884137155764</v>
+        <v>0.2900018535341631</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5329551980795704</v>
+        <v>0.5416194400818924</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>23215</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17124</v>
+        <v>16536</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29761</v>
+        <v>28874</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5876520016145851</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4334763563944425</v>
+        <v>0.4185819451886572</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.753337350397573</v>
+        <v>0.730899105675389</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -2803,19 +2803,19 @@
         <v>16677</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10307</v>
+        <v>10631</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23097</v>
+        <v>23397</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4952474647116482</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3060873320109273</v>
+        <v>0.315687096422695</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6858807148608732</v>
+        <v>0.6947784131908465</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>35</v>
@@ -2824,19 +2824,19 @@
         <v>39892</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>31295</v>
+        <v>30848</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>48430</v>
+        <v>50169</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5451305122874943</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4276480869492752</v>
+        <v>0.4215412557323012</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6617952792666226</v>
+        <v>0.6855617558626754</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>2902</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8048</v>
+        <v>7872</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07346844834478071</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02095280634696499</v>
+        <v>0.02062873490675899</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2037203428457845</v>
+        <v>0.1992777739799765</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2874,19 +2874,19 @@
         <v>6155</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2194</v>
+        <v>2103</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11639</v>
+        <v>12128</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1827781124612838</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06513947428240045</v>
+        <v>0.0624597831521372</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3456277993089518</v>
+        <v>0.3601342300230135</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -2895,19 +2895,19 @@
         <v>9057</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4025</v>
+        <v>4126</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16116</v>
+        <v>15694</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1237691140032223</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05500345612313196</v>
+        <v>0.05637895636842015</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2202338716586406</v>
+        <v>0.2144559839596883</v>
       </c>
     </row>
     <row r="11">
@@ -2924,19 +2924,19 @@
         <v>5941</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2091</v>
+        <v>2671</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11148</v>
+        <v>11715</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1503972945734945</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05292613020878722</v>
+        <v>0.06761557427250157</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2821896497717974</v>
+        <v>0.2965541821935789</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6396</v>
+        <v>6328</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05934015501405136</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1899227146009431</v>
+        <v>0.1879222873078049</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -2966,19 +2966,19 @@
         <v>7940</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3672</v>
+        <v>3937</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13947</v>
+        <v>14584</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1084958326139009</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05017760260208839</v>
+        <v>0.05379330256878245</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1905893583185322</v>
+        <v>0.1992936809262248</v>
       </c>
     </row>
     <row r="12">
@@ -2999,19 +2999,19 @@
         <v>7229</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3255</v>
+        <v>3075</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13417</v>
+        <v>13149</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.234782937955192</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1057220530385735</v>
+        <v>0.09988399110004235</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4357564002264492</v>
+        <v>0.4270803363443038</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -3020,19 +3020,19 @@
         <v>5762</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2192</v>
+        <v>2271</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10470</v>
+        <v>11209</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2838096928314938</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1079471289859205</v>
+        <v>0.1118689818105773</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5157041799830571</v>
+        <v>0.5521337283329226</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -3041,19 +3041,19 @@
         <v>12991</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7275</v>
+        <v>7491</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19956</v>
+        <v>20834</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2542644511941553</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1423833124413481</v>
+        <v>0.1466249836101828</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3905971103679834</v>
+        <v>0.4077763023459767</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>18381</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12312</v>
+        <v>12424</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23393</v>
+        <v>23844</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5970096856994281</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.399886093892858</v>
+        <v>0.403518090926423</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7597988532817238</v>
+        <v>0.7744318682509527</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -3091,19 +3091,19 @@
         <v>11116</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6652</v>
+        <v>6464</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16638</v>
+        <v>15722</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.547553504648759</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3276632771476358</v>
+        <v>0.3184130882265448</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8195262771299908</v>
+        <v>0.7744285197147444</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -3112,19 +3112,19 @@
         <v>29498</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21789</v>
+        <v>21774</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36285</v>
+        <v>36252</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5773575335568254</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4264787089092115</v>
+        <v>0.42618575016966</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7101949126864812</v>
+        <v>0.7095562770603484</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>7233</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3097</v>
+        <v>3041</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12878</v>
+        <v>13573</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2349094137998529</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1005951746104464</v>
+        <v>0.09877649015834546</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4182794946163137</v>
+        <v>0.4408326343587158</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -3162,19 +3162,19 @@
         <v>3318</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1010</v>
+        <v>1042</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7862</v>
+        <v>7993</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1634196198220942</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04976726624086611</v>
+        <v>0.05130117018468591</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3872720782994533</v>
+        <v>0.3937155073079598</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -3183,19 +3183,19 @@
         <v>10550</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5434</v>
+        <v>5286</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17101</v>
+        <v>17419</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2065018765002208</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1063662376861174</v>
+        <v>0.1034531662741975</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3347233576332265</v>
+        <v>0.3409321757649129</v>
       </c>
     </row>
     <row r="15">
@@ -3212,19 +3212,19 @@
         <v>2921</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>871</v>
+        <v>847</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7983</v>
+        <v>7869</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.09485714318338086</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02828774253407638</v>
+        <v>0.02749987783107456</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2592900654644767</v>
+        <v>0.255564375902378</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4481</v>
+        <v>4582</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05432191115718393</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2207156884676799</v>
+        <v>0.2256944167269924</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -3254,19 +3254,19 @@
         <v>4023</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>939</v>
+        <v>1122</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10390</v>
+        <v>9477</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07874986336534588</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0183759473632059</v>
+        <v>0.02195990746169783</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2033584556050256</v>
+        <v>0.1854901551332533</v>
       </c>
     </row>
     <row r="16">
@@ -3287,19 +3287,19 @@
         <v>25345</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17697</v>
+        <v>17458</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33588</v>
+        <v>33328</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4332216193113144</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3024954950569307</v>
+        <v>0.2984098046810729</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5741221337212362</v>
+        <v>0.5696787858316681</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -3308,19 +3308,19 @@
         <v>15223</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8884</v>
+        <v>9202</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21470</v>
+        <v>21911</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4160819746412586</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2428126698940257</v>
+        <v>0.2514971281846937</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5868072322867288</v>
+        <v>0.5988704140287248</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -3329,19 +3329,19 @@
         <v>40568</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31045</v>
+        <v>30655</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50826</v>
+        <v>51091</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4266269770755787</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3264833728336993</v>
+        <v>0.3223775429236712</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5345025082969211</v>
+        <v>0.5372899496492425</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>28284</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19901</v>
+        <v>20469</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35489</v>
+        <v>36591</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4834618686829817</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3401688480989344</v>
+        <v>0.3498860076838399</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.606618506731336</v>
+        <v>0.6254610658324343</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -3379,19 +3379,19 @@
         <v>23822</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16994</v>
+        <v>16782</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29831</v>
+        <v>29234</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6511120896031983</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4644951671551547</v>
+        <v>0.4587007067701476</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8153396282873173</v>
+        <v>0.7990319978182479</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>48</v>
@@ -3400,19 +3400,19 @@
         <v>52106</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>41999</v>
+        <v>42849</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>62259</v>
+        <v>62429</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5479668948369039</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4416740210934705</v>
+        <v>0.4506192781408608</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6547403057594305</v>
+        <v>0.6565211445419684</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>15361</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9559</v>
+        <v>8779</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23928</v>
+        <v>23447</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2625737465271107</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1633971903969647</v>
+        <v>0.1500665433042395</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.40900449918998</v>
+        <v>0.400776718131496</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -3450,19 +3450,19 @@
         <v>10677</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5449</v>
+        <v>5500</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17670</v>
+        <v>17860</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2918314705203799</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1489301132166778</v>
+        <v>0.1503258805585827</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4829603101515461</v>
+        <v>0.4881530767231146</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>23</v>
@@ -3471,19 +3471,19 @@
         <v>26039</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16722</v>
+        <v>17877</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>35472</v>
+        <v>35969</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2738309356977007</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1758540757931953</v>
+        <v>0.1879961125505946</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.373039044194509</v>
+        <v>0.3782600214333411</v>
       </c>
     </row>
     <row r="19">
@@ -3500,19 +3500,19 @@
         <v>6581</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2984</v>
+        <v>2842</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13899</v>
+        <v>14016</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1124968963197756</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0510023434933676</v>
+        <v>0.04857074287368251</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2375706113300344</v>
+        <v>0.2395803310545022</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -3521,19 +3521,19 @@
         <v>3095</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>959</v>
+        <v>933</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7728</v>
+        <v>7719</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08460227481587997</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02622311665455468</v>
+        <v>0.02550936122070504</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2112258949688808</v>
+        <v>0.2109739338432413</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -3542,19 +3542,19 @@
         <v>9677</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4485</v>
+        <v>4979</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16789</v>
+        <v>16989</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1017641738707021</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04716767967920277</v>
+        <v>0.05236276377241866</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1765588752074999</v>
+        <v>0.1786595905332042</v>
       </c>
     </row>
     <row r="20">
@@ -3575,19 +3575,19 @@
         <v>58240</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>47250</v>
+        <v>48049</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>71787</v>
+        <v>71667</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3647133976810025</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2958959896920056</v>
+        <v>0.3008937213192656</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4495511935597863</v>
+        <v>0.448797313038644</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -3596,19 +3596,19 @@
         <v>39488</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28209</v>
+        <v>29942</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>50858</v>
+        <v>51690</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3400458024741593</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2429139789973114</v>
+        <v>0.2578433312882236</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4379549935852354</v>
+        <v>0.4451216788160562</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>92</v>
@@ -3617,19 +3617,19 @@
         <v>97728</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>80547</v>
+        <v>81319</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>114106</v>
+        <v>113531</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.354327524701081</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2920361017237663</v>
+        <v>0.2948352761696253</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4137089365894571</v>
+        <v>0.4116231887513355</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>82704</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>69344</v>
+        <v>70837</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>94686</v>
+        <v>95528</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.517915093555665</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.434252118432943</v>
+        <v>0.4436016590888513</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.592952418997872</v>
+        <v>0.5982211959955898</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>55</v>
@@ -3667,19 +3667,19 @@
         <v>65140</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>53151</v>
+        <v>52865</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>76504</v>
+        <v>76072</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5609425123724595</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4577022590716825</v>
+        <v>0.4552417301709759</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6587974738730985</v>
+        <v>0.6550825714658608</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>136</v>
@@ -3688,19 +3688,19 @@
         <v>147844</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>130786</v>
+        <v>131988</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>166187</v>
+        <v>164616</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5360310591671462</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4741864724804266</v>
+        <v>0.4785434536724951</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6025356556263511</v>
+        <v>0.5968423588087639</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>36425</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26215</v>
+        <v>25938</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48678</v>
+        <v>49331</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2281053014149002</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1641662239015072</v>
+        <v>0.1624285241887999</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.30483426347349</v>
+        <v>0.3089244845355781</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -3738,19 +3738,19 @@
         <v>30257</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22603</v>
+        <v>21659</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42315</v>
+        <v>41665</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2605536215041537</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1946421719066587</v>
+        <v>0.1865110828095554</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3643862360407529</v>
+        <v>0.3587874858519958</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>60</v>
@@ -3759,19 +3759,19 @@
         <v>66682</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>52636</v>
+        <v>51837</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>81991</v>
+        <v>81987</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2417671167654833</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.190838787744294</v>
+        <v>0.1879438834550776</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2972721437866863</v>
+        <v>0.2972554138515522</v>
       </c>
     </row>
     <row r="23">
@@ -3788,19 +3788,19 @@
         <v>17075</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10141</v>
+        <v>10438</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25942</v>
+        <v>26707</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1069266918406879</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06350833870925576</v>
+        <v>0.06536828087019228</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1624571092941199</v>
+        <v>0.1672472178264327</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -3809,19 +3809,19 @@
         <v>9556</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4315</v>
+        <v>4434</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17804</v>
+        <v>16516</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08229093583507152</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.037157305879423</v>
+        <v>0.0381829052693855</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1533160264765593</v>
+        <v>0.1422265675815723</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>25</v>
@@ -3830,19 +3830,19 @@
         <v>26631</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>17878</v>
+        <v>17129</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>38244</v>
+        <v>38671</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09655422421694124</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06481844291074078</v>
+        <v>0.06210430274424061</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1386598098097961</v>
+        <v>0.1402062856021956</v>
       </c>
     </row>
     <row r="24">
@@ -4103,19 +4103,19 @@
         <v>6203</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2681</v>
+        <v>2639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12385</v>
+        <v>12187</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06151794438809739</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02659398252472315</v>
+        <v>0.02617496436561658</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.122836263481274</v>
+        <v>0.1208642790186368</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -4124,19 +4124,19 @@
         <v>10692</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6810</v>
+        <v>6819</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15637</v>
+        <v>16177</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1009744720046441</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06431475774828244</v>
+        <v>0.06439701579137447</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1476739436041005</v>
+        <v>0.1527666249801401</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -4145,19 +4145,19 @@
         <v>16895</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11167</v>
+        <v>11013</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23381</v>
+        <v>24220</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08172936480195669</v>
+        <v>0.08172936480195672</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0540188738456519</v>
+        <v>0.05327750192940041</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1131068032704304</v>
+        <v>0.1171626573252354</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>45883</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36296</v>
+        <v>36864</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>55001</v>
+        <v>54842</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4550612719373007</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3599761720359618</v>
+        <v>0.3656128836881826</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5454951539438732</v>
+        <v>0.5439201209575883</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>87</v>
@@ -4195,19 +4195,19 @@
         <v>43306</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36027</v>
+        <v>36549</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51005</v>
+        <v>50917</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4089644330294137</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.340225282433774</v>
+        <v>0.3451550503416572</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4816708310899422</v>
+        <v>0.4808414264651318</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>146</v>
@@ -4216,19 +4216,19 @@
         <v>89189</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>77466</v>
+        <v>77449</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>101347</v>
+        <v>101840</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4314483833432588</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3747398154380484</v>
+        <v>0.3746587490605156</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4902631902717857</v>
+        <v>0.4926505631935753</v>
       </c>
     </row>
     <row r="6">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2863</v>
+        <v>3244</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005681287241437953</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02839527850319891</v>
+        <v>0.03217679878123506</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1876</v>
+        <v>1895</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003541862888902224</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01771396895225218</v>
+        <v>0.01789974127157146</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -4290,16 +4290,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3327</v>
+        <v>3605</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.004585377194487579</v>
+        <v>0.00458537719448758</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01609542906439531</v>
+        <v>0.01744084719503588</v>
       </c>
     </row>
     <row r="7">
@@ -4316,19 +4316,19 @@
         <v>64191</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55096</v>
+        <v>55147</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72762</v>
+        <v>73068</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6366433662692607</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5464325076830062</v>
+        <v>0.5469450744022536</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7216446899828693</v>
+        <v>0.7246819018134186</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>122</v>
@@ -4337,19 +4337,19 @@
         <v>63489</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55375</v>
+        <v>56128</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69930</v>
+        <v>70571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5995735728511629</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.522947650547372</v>
+        <v>0.5300570778996609</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6603947786113754</v>
+        <v>0.6664491122593552</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>203</v>
@@ -4358,19 +4358,19 @@
         <v>127681</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>115307</v>
+        <v>115505</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139364</v>
+        <v>138311</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6176545392059818</v>
+        <v>0.6176545392059819</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5577946141150965</v>
+        <v>0.5587521860114066</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6741698650106108</v>
+        <v>0.6690754272374092</v>
       </c>
     </row>
     <row r="8">
@@ -4391,19 +4391,19 @@
         <v>20670</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13593</v>
+        <v>14056</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28584</v>
+        <v>29496</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1342462554049474</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08828383870862054</v>
+        <v>0.09129353192157608</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1856458548674489</v>
+        <v>0.1915694569508557</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -4412,19 +4412,19 @@
         <v>18242</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12746</v>
+        <v>12571</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24823</v>
+        <v>25718</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1299903194043766</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09083026850291204</v>
+        <v>0.08957721517754424</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1768891715683074</v>
+        <v>0.1832648959684532</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>54</v>
@@ -4433,19 +4433,19 @@
         <v>38912</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>29891</v>
+        <v>30170</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>50027</v>
+        <v>49672</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1322168934734931</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1015646647482969</v>
+        <v>0.1025123455436743</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1699844962438013</v>
+        <v>0.168776871788819</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>70356</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>59401</v>
+        <v>59366</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>83784</v>
+        <v>81881</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4569440242091082</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3857928859572821</v>
+        <v>0.3855665880853459</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5441563790898069</v>
+        <v>0.5317991170207467</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>93</v>
@@ -4483,19 +4483,19 @@
         <v>54903</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>46119</v>
+        <v>46309</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>64187</v>
+        <v>64018</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.3912334787684131</v>
+        <v>0.3912334787684132</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3286428232280889</v>
+        <v>0.3299946805922337</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4573886623817066</v>
+        <v>0.456183314068037</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>176</v>
@@ -4504,19 +4504,19 @@
         <v>125259</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>112070</v>
+        <v>110580</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>141625</v>
+        <v>139616</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4256112035570691</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3807972419939383</v>
+        <v>0.3757345299659715</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4812224689320585</v>
+        <v>0.4743969986922638</v>
       </c>
     </row>
     <row r="10">
@@ -4536,16 +4536,16 @@
         <v>514</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4854</v>
+        <v>5235</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01154874054350576</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003340200805724174</v>
+        <v>0.003339707486246189</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03152834519129997</v>
+        <v>0.03400221442421491</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -4557,16 +4557,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2913</v>
+        <v>2176</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.003081085412925526</v>
+        <v>0.003081085412925527</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02076126110852547</v>
+        <v>0.01550813449186939</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -4575,19 +4575,19 @@
         <v>2211</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>559</v>
+        <v>613</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5469</v>
+        <v>5719</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007511100652215543</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001900197510013387</v>
+        <v>0.002081531424719077</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01858299895295227</v>
+        <v>0.0194321887618283</v>
       </c>
     </row>
     <row r="11">
@@ -4604,19 +4604,19 @@
         <v>100933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89712</v>
+        <v>90308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>111663</v>
+        <v>111591</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6555356347275691</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5826590443024506</v>
+        <v>0.5865326077708712</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7252271783350898</v>
+        <v>0.7247593608424714</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>165</v>
@@ -4625,19 +4625,19 @@
         <v>99409</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>90900</v>
+        <v>91038</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>106910</v>
+        <v>108110</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7083782062251136</v>
+        <v>0.7083782062251137</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6477442478632174</v>
+        <v>0.6487286914203726</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7618308811154199</v>
+        <v>0.7703843213906386</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>287</v>
@@ -4646,19 +4646,19 @@
         <v>200342</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>186296</v>
+        <v>185437</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>213522</v>
+        <v>213968</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6807326073659933</v>
+        <v>0.6807326073659932</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6330084848846367</v>
+        <v>0.6300899901604181</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7255169752413086</v>
+        <v>0.727032503106294</v>
       </c>
     </row>
     <row r="12">
@@ -4679,19 +4679,19 @@
         <v>27223</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19006</v>
+        <v>19612</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>36167</v>
+        <v>37802</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.230563645486117</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.160966976234223</v>
+        <v>0.1661069427861783</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3063188082241163</v>
+        <v>0.3201664397556402</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -4700,19 +4700,19 @@
         <v>15164</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10040</v>
+        <v>9619</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21266</v>
+        <v>21188</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1782216951756036</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1179967744422146</v>
+        <v>0.1130544824391592</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2499300333806719</v>
+        <v>0.2490131003641505</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>51</v>
@@ -4721,19 +4721,19 @@
         <v>42387</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>32512</v>
+        <v>32832</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>53402</v>
+        <v>53386</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2086418951009932</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1600353509606341</v>
+        <v>0.1616107642808245</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2628601314658961</v>
+        <v>0.2627809698037135</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>49451</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39698</v>
+        <v>38907</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59173</v>
+        <v>59102</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4188278593251821</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.336221902272292</v>
+        <v>0.3295246043765362</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5011668403107251</v>
+        <v>0.5005619658917584</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -4771,19 +4771,19 @@
         <v>30163</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23607</v>
+        <v>22920</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36719</v>
+        <v>37182</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.354500928682765</v>
+        <v>0.3545009286827649</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2774469526178946</v>
+        <v>0.2693690349561597</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4315534147344605</v>
+        <v>0.4369955695866942</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>104</v>
@@ -4792,19 +4792,19 @@
         <v>79615</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66190</v>
+        <v>67825</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92120</v>
+        <v>92257</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3918865835756425</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3258064786451431</v>
+        <v>0.3338527473857989</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4534403032333099</v>
+        <v>0.4541150611361459</v>
       </c>
     </row>
     <row r="14">
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5764</v>
+        <v>4623</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.009521316336247528</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04881557041917055</v>
+        <v>0.03915635892895838</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4226</v>
+        <v>4824</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01625046748997241</v>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04966728590154299</v>
+        <v>0.05670058529546531</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -4863,19 +4863,19 @@
         <v>2507</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7372</v>
+        <v>7180</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01233960589215074</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003256120707307683</v>
+        <v>0.003231627752026207</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03628821129903181</v>
+        <v>0.03534139310139438</v>
       </c>
     </row>
     <row r="15">
@@ -4892,19 +4892,19 @@
         <v>70019</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>58784</v>
+        <v>58901</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>80320</v>
+        <v>80537</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.5930256911600232</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4978726211802614</v>
+        <v>0.4988591235736647</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6802690166293786</v>
+        <v>0.6821082618962172</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>101</v>
@@ -4913,19 +4913,19 @@
         <v>64405</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>57866</v>
+        <v>57721</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>70275</v>
+        <v>70355</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.7569390833093175</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6800835677689964</v>
+        <v>0.6783893735849771</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8259276403989216</v>
+        <v>0.8268736140338327</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>179</v>
@@ -4934,19 +4934,19 @@
         <v>134424</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>122700</v>
+        <v>121726</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>146858</v>
+        <v>145407</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6616755684794399</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6039674665580228</v>
+        <v>0.5991729003253491</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7228791731897599</v>
+        <v>0.7157358380032155</v>
       </c>
     </row>
     <row r="16">
@@ -4967,19 +4967,19 @@
         <v>22052</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14453</v>
+        <v>14755</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31631</v>
+        <v>31723</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1113716313651933</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07299540810023487</v>
+        <v>0.07451857778600982</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1597492319216069</v>
+        <v>0.1602146609330053</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -4988,19 +4988,19 @@
         <v>17979</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12428</v>
+        <v>12445</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24516</v>
+        <v>24872</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09128294968008592</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06309944048931342</v>
+        <v>0.06318660642603047</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1244713867442709</v>
+        <v>0.1262814756616699</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -5009,19 +5009,19 @@
         <v>40031</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31341</v>
+        <v>30559</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51167</v>
+        <v>50256</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1013538703068001</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07935380088937449</v>
+        <v>0.07737370494337158</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1295496767871248</v>
+        <v>0.1272429548707266</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>81713</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71371</v>
+        <v>69619</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95129</v>
+        <v>93298</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4126881455738606</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3604543410685416</v>
+        <v>0.3516054646951995</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4804447676818952</v>
+        <v>0.4711993410808807</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>103</v>
@@ -5059,19 +5059,19 @@
         <v>63814</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53583</v>
+        <v>54028</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74893</v>
+        <v>74310</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3239978048201012</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2720520810020766</v>
+        <v>0.2743155829073076</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3802480283930205</v>
+        <v>0.3772895237246446</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>218</v>
@@ -5080,19 +5080,19 @@
         <v>145526</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>130953</v>
+        <v>129152</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>161452</v>
+        <v>160500</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3684603233710078</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3315615384867109</v>
+        <v>0.3270019164891083</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4087829812604707</v>
+        <v>0.4063733357151915</v>
       </c>
     </row>
     <row r="18">
@@ -5156,19 +5156,19 @@
         <v>131099</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>118447</v>
+        <v>119425</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>142056</v>
+        <v>143444</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6621076191858406</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5982090966709642</v>
+        <v>0.6031529390495213</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.717447738353679</v>
+        <v>0.7244561532063861</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>238</v>
@@ -5177,19 +5177,19 @@
         <v>145600</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>134788</v>
+        <v>135869</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>154438</v>
+        <v>154622</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7392470602818886</v>
+        <v>0.7392470602818885</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6843520403788038</v>
+        <v>0.689843332560341</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7841183905662935</v>
+        <v>0.785056250294234</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>413</v>
@@ -5198,19 +5198,19 @@
         <v>276698</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>259398</v>
+        <v>261362</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>291430</v>
+        <v>292834</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7005752748135911</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6567740492526197</v>
+        <v>0.6617454384532189</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7378763861098946</v>
+        <v>0.7414300197897568</v>
       </c>
     </row>
     <row r="20">
@@ -5231,19 +5231,19 @@
         <v>76147</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62006</v>
+        <v>62191</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>92223</v>
+        <v>92979</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1333879920354694</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.108616797543558</v>
+        <v>0.1089408782654963</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1615474696742403</v>
+        <v>0.1628728495461548</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>101</v>
@@ -5252,19 +5252,19 @@
         <v>62077</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>51315</v>
+        <v>51240</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>74737</v>
+        <v>73334</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1175110535443716</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09713917287599012</v>
+        <v>0.09699602114165572</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1414757185727755</v>
+        <v>0.1388200890347921</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>188</v>
@@ -5273,19 +5273,19 @@
         <v>138224</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>120799</v>
+        <v>119734</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>158270</v>
+        <v>158406</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1257572380075109</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1099031108998274</v>
+        <v>0.1089342563724473</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1439951043049849</v>
+        <v>0.1441188683441796</v>
       </c>
     </row>
     <row r="21">
@@ -5302,19 +5302,19 @@
         <v>247403</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>225234</v>
+        <v>226166</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>268196</v>
+        <v>270498</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4333783030647581</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3945444742094213</v>
+        <v>0.3961772401011128</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4698015393320824</v>
+        <v>0.4738341152853153</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>332</v>
@@ -5323,19 +5323,19 @@
         <v>192185</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>174527</v>
+        <v>174602</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>210294</v>
+        <v>207797</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3638033980577172</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3303772610531127</v>
+        <v>0.3305191409810497</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3980833799104601</v>
+        <v>0.3933575329040588</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>644</v>
@@ -5344,19 +5344,19 @@
         <v>439588</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>411975</v>
+        <v>413734</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>466318</v>
+        <v>467833</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3999393005187075</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3748171074129124</v>
+        <v>0.3764173434622524</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4242581768479508</v>
+        <v>0.4256363689547534</v>
       </c>
     </row>
     <row r="22">
@@ -5373,19 +5373,19 @@
         <v>3475</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1215</v>
+        <v>1179</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8832</v>
+        <v>8756</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006087519537566367</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002127586739985627</v>
+        <v>0.002065606693984821</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01547192607764589</v>
+        <v>0.01533868323371247</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -5394,19 +5394,19 @@
         <v>2190</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>495</v>
+        <v>731</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5627</v>
+        <v>5506</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004145852519126754</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0009378360470028811</v>
+        <v>0.001384139975969613</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01065133897816195</v>
+        <v>0.01042322719106568</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -5415,19 +5415,19 @@
         <v>5665</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2736</v>
+        <v>2714</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11051</v>
+        <v>10568</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005154317999359252</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002489087053507432</v>
+        <v>0.002468882456616387</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01005435383558533</v>
+        <v>0.00961512964777651</v>
       </c>
     </row>
     <row r="23">
@@ -5444,19 +5444,19 @@
         <v>366242</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>347305</v>
+        <v>345801</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>385653</v>
+        <v>387640</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6415495852534819</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6083765060977885</v>
+        <v>0.6057431317623412</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6755513817084396</v>
+        <v>0.6790323291057185</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>626</v>
@@ -5465,19 +5465,19 @@
         <v>372902</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>355934</v>
+        <v>356125</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>388856</v>
+        <v>388024</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7058988816476025</v>
+        <v>0.7058988816476026</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6737786560590471</v>
+        <v>0.6741386403359227</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7360994463435225</v>
+        <v>0.7345240439931018</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1082</v>
@@ -5486,19 +5486,19 @@
         <v>739144</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>711142</v>
+        <v>712790</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>764044</v>
+        <v>765618</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6724770624198796</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6470004662734906</v>
+        <v>0.6484998118830496</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6951310442345715</v>
+        <v>0.6965629419224536</v>
       </c>
     </row>
     <row r="24">
